--- a/HLR report for standard _user.xlsx
+++ b/HLR report for standard _user.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="15315" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="15315" windowHeight="7485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HLR for Standard _user" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Test_Scenario" sheetId="2" r:id="rId2"/>
+    <sheet name="Test_cases" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="137">
   <si>
     <t>Url: https://www.saucedemo.com</t>
   </si>
@@ -175,13 +175,265 @@
   </si>
   <si>
     <t>https://www.saucedemo.com/v1/checkout-step-one.html</t>
+  </si>
+  <si>
+    <t>TEST_SCENARIO</t>
+  </si>
+  <si>
+    <t>TEST ID</t>
+  </si>
+  <si>
+    <t>FUNCTIONALITY ID</t>
+  </si>
+  <si>
+    <t>TEST SUMMARY</t>
+  </si>
+  <si>
+    <t>TEST DESCRIPTION</t>
+  </si>
+  <si>
+    <t>STEP</t>
+  </si>
+  <si>
+    <t>TEST DATA</t>
+  </si>
+  <si>
+    <t>ACTUAL RESULT</t>
+  </si>
+  <si>
+    <t>Click on url</t>
+  </si>
+  <si>
+    <t>While entering  url in address bar website open sucessfully</t>
+  </si>
+  <si>
+    <t>1)Url: https://www.saucedemo.com                 2)press enter key</t>
+  </si>
+  <si>
+    <t>While entering  url in address bar new url is open sucessfully</t>
+  </si>
+  <si>
+    <t>AS per expected result</t>
+  </si>
+  <si>
+    <t>Click on product</t>
+  </si>
+  <si>
+    <t>click onDashboard menu</t>
+  </si>
+  <si>
+    <t>while clickin on this menu refresh/open the home page</t>
+  </si>
+  <si>
+    <t>Click on Add to cart button</t>
+  </si>
+  <si>
+    <t>After cilicking Add to cart  button is opened.</t>
+  </si>
+  <si>
+    <t>after cilicking product details opened .</t>
+  </si>
+  <si>
+    <t>Click on Remove button</t>
+  </si>
+  <si>
+    <t>After cilicking remove  button is opened.</t>
+  </si>
+  <si>
+    <t>1)Url: https://www.saucedemo.com  / https://www.saucedemo.com/inventory.html              2)press enter key  3)login to the next page 4) click on signing button  5 )clickon dashhboard menu 6) click on product button  7) click on add to cart button 8) click on remove button</t>
+  </si>
+  <si>
+    <t>After clicking produt name product add successfully.</t>
+  </si>
+  <si>
+    <t>1)Url: https://www.saucedemo.com                 2)press enter key                                                                    3)login to the next page</t>
+  </si>
+  <si>
+    <t>1)Url: https://www.saucedemo.com  / https://www.saucedemo.com/inventory.html              2)press enter key                                                                3)login to the next page                                                                4) click on signing button                                                            5 )clickon dashhboard menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Url: https://www.saucedemo.com  / https://www.saucedemo.com/inventory.html              2)press enter key                                                           3)login to the next page                                                               4) click on signing button                                                         5 )clickon dashhboard menu                                                                   6) click on product button </t>
+  </si>
+  <si>
+    <t>1)Url: https://www.saucedemo.com  / https://www.saucedemo.com/inventory.html              2)press enter key                                                                       3)login to the next page                                                               4) click on signing button                                                                   5 )clickon dashhboard menu                                                                   6) click on product button                                                           7) click on add to cart button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Url: https://www.saucedemo.com  / https://www.saucedemo.com/inventory.html              2)press enter key                                                      3)login to the next page                                                                               4) click on signing button                                                                       5 )clickon dashhboard menu                                                            6) click on product button                                             7) click on add to cart button                                                               8) click on remove button </t>
+  </si>
+  <si>
+    <t>TEST_CASES</t>
+  </si>
+  <si>
+    <t>Testcase ID</t>
+  </si>
+  <si>
+    <t>Functionality ID</t>
+  </si>
+  <si>
+    <t>Test case name</t>
+  </si>
+  <si>
+    <t>Test Description</t>
+  </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Check website url</t>
+  </si>
+  <si>
+    <t>while entering URL into addressbar its open the website</t>
+  </si>
+  <si>
+    <t>browser , internet, website must be in working condition</t>
+  </si>
+  <si>
+    <t>to open the website</t>
+  </si>
+  <si>
+    <t>as per expected esult</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>check login button</t>
+  </si>
+  <si>
+    <t>while clicking on signin menu its open the signin page</t>
+  </si>
+  <si>
+    <t>to open the login page</t>
+  </si>
+  <si>
+    <t>check on dashboard menu</t>
+  </si>
+  <si>
+    <t>to open the dashboard page</t>
+  </si>
+  <si>
+    <t>check on product name</t>
+  </si>
+  <si>
+    <t>while clicking on this menu refresh/open the home page</t>
+  </si>
+  <si>
+    <t>while clicking on this product name the details opened</t>
+  </si>
+  <si>
+    <t>check the add to cart button</t>
+  </si>
+  <si>
+    <t>while clicking on add to cart button is opened</t>
+  </si>
+  <si>
+    <t>to open product details</t>
+  </si>
+  <si>
+    <t>to open the add cart button successfully</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>check the remove button</t>
+  </si>
+  <si>
+    <t>while clicking on remove to cart button is opened</t>
+  </si>
+  <si>
+    <t>to open the remve button successfully.</t>
+  </si>
+  <si>
+    <t>check the product is present in cart or not</t>
+  </si>
+  <si>
+    <t>while click on product name is present in add to cart</t>
+  </si>
+  <si>
+    <t>1)Url: https://www.saucedemo.com                 2)press enter key 3)click on login buton  4)click on dashboard menu 5)click on product name button 6) click on add to cart button 7) click on remove button 8)click on product add cart option</t>
+  </si>
+  <si>
+    <t>to open the details product in add to cart</t>
+  </si>
+  <si>
+    <t>check the continue buttonwhile click on the continue button</t>
+  </si>
+  <si>
+    <t>while click on continuebutton add the information</t>
+  </si>
+  <si>
+    <t>to open the continue button successfully</t>
+  </si>
+  <si>
+    <t>As per expected esult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After clicking  continue button open successfully </t>
+  </si>
+  <si>
+    <t>1)Url: https://www.saucedemo.com  / https://www.saucedemo.com/inventory.html              2)press enter key                                                             3)login to the next page                                                           4) click on signing button                                                           5 )clickon dashhboard menu                                              6) click on product button                                                       7) click on add to cart button                                                    8) click on remove button                                                                9) click on continue button</t>
+  </si>
+  <si>
+    <t>1)Url: https://www.saucedemo.com  / https://www.saucedemo.com/inventory.html              2)press enter key                                                             3)login to the next page                                                           4) click on signing button                                                           5 )clickon dashhboard menu                                              6) click on product button                                                       7) click on add to cart button                                                    8) click on remove button                                                                9) click on continue button 10) click on finish button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click in finish button </t>
+  </si>
+  <si>
+    <t>After clicking  Finish button open successfully and product will be dispaatche thankyou message is displayed.</t>
+  </si>
+  <si>
+    <t>check the finish button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while click on Finish button  this work successfully  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to finish successfully </t>
+  </si>
+  <si>
+    <t>1)Url: https://www.saucedemo.com                          2)press enter key  3)click on login buton</t>
+  </si>
+  <si>
+    <t>1)Url: https://www.saucedemo.com https://www.saucedemo.com/inventory.html                  2)press enter key  3)click on login buton  4)click on dashboard menu</t>
+  </si>
+  <si>
+    <t>1)Url: https://www.saucedemo.com https://www.saucedemo.com/inventory.html                   2)press enter key  3)click on login buton  4)click on dashboard menu                              5)click on product name button</t>
+  </si>
+  <si>
+    <t>1)Url: https://www.saucedemo.com https://www.saucedemo.com/inventory.html                 2)press enter key  3)click on login buton  4)click on dashboard menu                           5)click on product name button                                        6) click on add to cart button</t>
+  </si>
+  <si>
+    <t>1)Url: https://www.saucedemo.comhttps://www.saucedemo.com/inventory.html                                    2)press enter key  3)click on login buton  4)click on dashboard menu                                           5)click on product name button                                                6) click on add to cart button                                               7) click on remove button</t>
+  </si>
+  <si>
+    <t>1)Url: https://www.saucedemo.com   https://www.saucedemo.com/inventory.html               2)press enter key     3)click on login buton  4)click on dashboard menu                                     5)click on product name button                                                                     6) click on add to cart button                                            7) click on remove button                                                                        8)click on product add cart option                     9)clickon continue button</t>
+  </si>
+  <si>
+    <t>1)Url: https://www.saucedemo.com    https://www.saucedemo.com/inventory.html              2)press enter key  3)click on login buton  4)click on dashboard menu                                   5)click on product name button                                               6) click on add to cart button                                           7) click on remove button                                                         8)click on product add cart option                          continue button                      10) click on finish button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,8 +491,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,13 +512,46 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -270,16 +562,35 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -289,8 +600,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -588,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -600,33 +918,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
@@ -651,11 +969,11 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
@@ -680,24 +998,24 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="8">
+      <c r="A9" s="3">
         <v>102</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="8">
+      <c r="A10" s="3">
         <v>103</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -719,7 +1037,7 @@
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -730,7 +1048,7 @@
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -793,19 +1111,19 @@
       <c r="A19">
         <v>112</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
@@ -841,12 +1159,12 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="4"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
@@ -871,11 +1189,11 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
@@ -921,24 +1239,594 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" customWidth="1"/>
+    <col min="4" max="4" width="57" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="90">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="105">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="120">
+      <c r="A8">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="90">
+      <c r="A9">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>201</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="135">
+      <c r="A10">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>300</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="150">
+      <c r="A11">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>400</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="165">
+      <c r="A12">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>401</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:R1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+    </row>
+    <row r="2" spans="1:18" ht="30">
+      <c r="A2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+    </row>
+    <row r="3" spans="1:18" ht="75">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="75">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="225" customHeight="1">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="165">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="195">
+      <c r="A7">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="225">
+      <c r="A8">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>201</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="195">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>300</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="285">
+      <c r="A10">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>400</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="300">
+      <c r="A11">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>401</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:R1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>